--- a/solo project/07_1'st Project/Choijinyoung-project-xlsx.xlsx
+++ b/solo project/07_1'st Project/Choijinyoung-project-xlsx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\choijinyoung\solo project\07_1'st Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E255317-471C-4488-AF3F-176300E749B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t>비회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,13 +695,17 @@
   </si>
   <si>
     <t>잡담, 정보공유, 무료분양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,108 +1342,111 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,9 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,7 +1485,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1586,6 +1591,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1621,6 +1643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1796,66 +1835,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W29" sqref="W28:W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1"/>
-    <col min="2" max="2" width="0.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="2.875" style="1" customWidth="1"/>
+    <col min="5" max="15" width="2.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="0.75" style="1" customWidth="1"/>
     <col min="17" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1874,7 +1913,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1893,35 +1932,35 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="36"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="19"/>
       <c r="E7" s="10">
         <v>27</v>
@@ -1959,7 +1998,7 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1978,7 +2017,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
@@ -1999,7 +2038,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
@@ -2018,10 +2057,10 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="7"/>
@@ -2039,10 +2078,10 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="51"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
@@ -2058,7 +2097,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
@@ -2077,10 +2116,10 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="7"/>
@@ -2098,10 +2137,10 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
@@ -2117,7 +2156,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
@@ -2136,10 +2175,10 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="55" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7"/>
@@ -2157,10 +2196,10 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="5"/>
@@ -2176,7 +2215,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
@@ -2195,7 +2234,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="10" t="s">
@@ -2216,10 +2255,10 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="7"/>
@@ -2237,10 +2276,10 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="52"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2256,7 +2295,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
@@ -2275,10 +2314,10 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="7"/>
@@ -2296,10 +2335,10 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="52"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2315,7 +2354,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
@@ -2334,10 +2373,10 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="57" t="s">
         <v>109</v>
       </c>
       <c r="D27" s="7"/>
@@ -2355,10 +2394,10 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2374,7 +2413,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
@@ -2393,10 +2432,10 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="57" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="7"/>
@@ -2414,10 +2453,10 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2433,7 +2472,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
@@ -2452,10 +2491,10 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="57" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="7"/>
@@ -2473,10 +2512,10 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2492,7 +2531,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
@@ -2511,10 +2550,10 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="57" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="7"/>
@@ -2532,10 +2571,10 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2551,7 +2590,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
@@ -2570,7 +2609,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="10" t="s">
@@ -2591,10 +2630,10 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="58" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="7"/>
@@ -2612,10 +2651,10 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2631,7 +2670,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -2650,10 +2689,10 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="58" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="7"/>
@@ -2671,10 +2710,10 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2690,7 +2729,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -2709,10 +2748,10 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="58" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="7"/>
@@ -2730,10 +2769,10 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="53"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2749,7 +2788,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -2768,10 +2807,10 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="7"/>
@@ -2789,10 +2828,10 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="53"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="7"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2808,7 +2847,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="13"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
@@ -2827,7 +2866,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
       <c r="B52" s="3"/>
       <c r="C52" s="10" t="s">
@@ -2848,10 +2887,10 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="7"/>
@@ -2869,10 +2908,10 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="48"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2888,7 +2927,7 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
@@ -2907,10 +2946,10 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="56" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="7"/>
@@ -2928,10 +2967,10 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="48"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2947,7 +2986,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
@@ -2966,10 +3005,10 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="56" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="7"/>
@@ -2987,10 +3026,10 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="48"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="7"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3006,7 +3045,7 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="3"/>
       <c r="C61" s="7"/>
@@ -3025,10 +3064,10 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="56" t="s">
         <v>114</v>
       </c>
       <c r="D62" s="7"/>
@@ -3046,10 +3085,10 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="48"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="7"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3065,7 +3104,7 @@
       <c r="P63" s="13"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7"/>
@@ -3084,10 +3123,10 @@
       <c r="P64" s="13"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="56" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="7"/>
@@ -3105,10 +3144,10 @@
       <c r="P65" s="13"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="48"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="7"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3124,7 +3163,7 @@
       <c r="P66" s="13"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
       <c r="B67" s="3"/>
       <c r="C67" s="7"/>
@@ -3143,10 +3182,10 @@
       <c r="P67" s="13"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="6.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D68" s="4"/>
@@ -3164,10 +3203,10 @@
       <c r="P68" s="13"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="6.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="4"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3183,7 +3222,7 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="12"/>
@@ -3202,7 +3241,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3221,30 +3260,30 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="9.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="3"/>
       <c r="I72" s="35" t="s">
         <v>103</v>
       </c>
       <c r="J72" s="35"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="47" t="s">
+      <c r="L72" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="M72" s="47"/>
+      <c r="M72" s="59"/>
       <c r="N72" s="39"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3264,12 +3303,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3282,13 +3322,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3297,28 +3336,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="84" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="84"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="C1" s="62"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3331,8 +3370,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="62"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3352,8 +3391,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="62" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -3363,8 +3402,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="62"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -3372,33 +3411,33 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="62"/>
       <c r="B9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -3419,106 +3458,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="33"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3531,28 +3570,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="42" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="42" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.08203125" style="42" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="42" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.25" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="40" t="s">
         <v>34</v>
       </c>
@@ -3578,41 +3617,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+    <row r="3" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="72" t="s">
+    <row r="5" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="77" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="43"/>
@@ -3620,23 +3661,23 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="72" t="s">
+    <row r="7" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="43"/>
@@ -3644,37 +3685,37 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="73"/>
+    <row r="8" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="74"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="63" t="s">
         <v>147</v>
       </c>
       <c r="F10" s="44"/>
@@ -3682,19 +3723,19 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="80"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="77"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="80"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="44" t="s">
         <v>149</v>
       </c>
@@ -3704,13 +3745,13 @@
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79" t="s">
+    <row r="13" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="80"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="67" t="s">
         <v>148</v>
       </c>
       <c r="F13" s="44"/>
@@ -3718,19 +3759,19 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="80"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
-      <c r="C15" s="78"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="80"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
         <v>141</v>
       </c>
@@ -3742,15 +3783,15 @@
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
-      <c r="C16" s="76" t="s">
+    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="80"/>
+      <c r="C16" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="67" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="44"/>
@@ -3758,19 +3799,19 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="80"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="77"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="80"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="44" t="s">
         <v>49</v>
       </c>
@@ -3782,9 +3823,9 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="77"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="80"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="44" t="s">
         <v>50</v>
       </c>
@@ -3796,13 +3837,13 @@
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="79" t="s">
+    <row r="20" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="80"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="67" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="44"/>
@@ -3810,19 +3851,19 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="80"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="78"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="80"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="44" t="s">
         <v>52</v>
       </c>
@@ -3834,41 +3875,41 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62" t="s">
+    <row r="23" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
+    <row r="27" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="73" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="45" t="s">
@@ -3882,9 +3923,9 @@
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="70"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="81"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="45" t="s">
         <v>61</v>
       </c>
@@ -3896,9 +3937,9 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="70"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="81"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="45" t="s">
         <v>124</v>
       </c>
@@ -3910,9 +3951,9 @@
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="65"/>
-      <c r="C30" s="70"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="81"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="45" t="s">
         <v>121</v>
       </c>
@@ -3924,9 +3965,9 @@
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="81" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="81"/>
+      <c r="C31" s="82" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="45" t="s">
@@ -3940,9 +3981,9 @@
       <c r="H31" s="45"/>
       <c r="I31" s="45"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="82"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="45" t="s">
         <v>62</v>
       </c>
@@ -3954,9 +3995,9 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
     </row>
-    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="82"/>
+    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="45" t="s">
         <v>63</v>
       </c>
@@ -3968,9 +4009,9 @@
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="82"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="81"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="45" t="s">
         <v>64</v>
       </c>
@@ -3982,10 +4023,10 @@
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="63" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="81"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="75" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="45" t="s">
@@ -3996,10 +4037,10 @@
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="65"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="64"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36" s="81"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="45" t="s">
         <v>71</v>
       </c>
@@ -4008,15 +4049,15 @@
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="65"/>
-      <c r="C37" s="70" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="81"/>
+      <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="72" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="45"/>
@@ -4024,19 +4065,19 @@
       <c r="H37" s="46"/>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="65"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38" s="81"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="65"/>
-      <c r="C39" s="71"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39" s="81"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="45" t="s">
         <v>74</v>
       </c>
@@ -4048,9 +4089,9 @@
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="71"/>
+    <row r="40" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="81"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="45" t="s">
         <v>75</v>
       </c>
@@ -4062,13 +4103,13 @@
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="63" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41" s="81"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="45"/>
@@ -4076,19 +4117,19 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
+    <row r="42" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="81"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="71"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B43" s="81"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="45" t="s">
         <v>80</v>
       </c>
@@ -4100,13 +4141,13 @@
       <c r="H43" s="45"/>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="63" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B44" s="81"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="75" t="s">
         <v>82</v>
       </c>
       <c r="F44" s="45"/>
@@ -4114,19 +4155,19 @@
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="65"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B45" s="81"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B46" s="81"/>
+      <c r="C46" s="81" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="45" t="s">
@@ -4140,9 +4181,9 @@
       <c r="H46" s="45"/>
       <c r="I46" s="45"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="45" t="s">
         <v>129</v>
       </c>
@@ -4154,9 +4195,9 @@
       <c r="H47" s="45"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="45" t="s">
         <v>130</v>
       </c>
@@ -4168,10 +4209,10 @@
       <c r="H48" s="45"/>
       <c r="I48" s="45"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="66" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="72" t="s">
         <v>136</v>
       </c>
       <c r="E49" s="45" t="s">
@@ -4182,10 +4223,10 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="45" t="s">
         <v>134</v>
       </c>
@@ -4196,15 +4237,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C31:C36"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="D37:D38"/>
@@ -4221,14 +4261,15 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4237,25 +4278,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.08203125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -4266,7 +4307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -4277,7 +4318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4288,7 +4329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -4299,17 +4340,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>101</v>
       </c>

--- a/solo project/07_1'st Project/Choijinyoung-project-xlsx.xlsx
+++ b/solo project/07_1'st Project/Choijinyoung-project-xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\choijinyoung\solo project\07_1'st Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E255317-471C-4488-AF3F-176300E749B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD4591-9B96-4B43-9230-71362F14BDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="423">
   <si>
     <t>비회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,18 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입, 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자등록, 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴바 152 124 77(98 7C 4D)</t>
   </si>
   <si>
@@ -180,10 +172,6 @@
   </si>
   <si>
     <t>웹페이지를 이용한 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용자(회원), 관리자(운영자) 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,120 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB에 있는 특정 상품 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스단 Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 글작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 글목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름과 이메일을 이용한 아이디 찾기,
-id와 이름을 이용한 비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 특정 글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 특정 글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 특정 글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 회원정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내정보변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니물품삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니수량수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문
-관련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 새로운 물품 담기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 장바구니의 물품 목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 특정 물품 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 특정 물품 수량변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">장바구니 물품 주문하기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 물품 주문위해 배송정보입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자유게시판 글작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자유게시판 글목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자유게시판 특정글 상세보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,14 +217,6 @@
   </si>
   <si>
     <t>자유게시판 특정글에 답변달기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 특정글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 특정글수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,35 +313,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분양 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분양신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자유 게시판 작성,수정,삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프리미엄 반려동물 게시판 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인, 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반려동물 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 분양게시판 글 작성,수정,삭제,보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄 분양게시판 글 작성,수정,삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,134 +344,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이
-페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분양신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분양신청 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분양예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분양 예약 내역 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자유
 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반려동물
-관련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물이름 및 내용 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 동물 목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 동물의 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄 동물 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄 동물 목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리미엄 동물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동물
 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지
-사항
-게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반동물 게시판 글 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반동물 게시판  글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반동물 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반동물 분양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반
-동물
-게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에 새로운 동물 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 동물의 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,6 +423,1290 @@
   </si>
   <si>
     <t>login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자(회원) 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminLoginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminLoginView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/loginView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid,mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminLogin.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid, apw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminLoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinAgree.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/joinAgree.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/joinView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/joinResult.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminJoinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminJoinView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminJoin.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자가 관리자 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자가 새로운 관리자 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인했을시에만 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogInsertView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogBreedService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cute Dog 전체보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogAllView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogAllService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/DogAllView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty Cat 전체보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatAllView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatAllService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/CatAllView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIdConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/idConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchIdView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mname,mbirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/searchIdView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchId.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSearchIdService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/searchIdResult.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchPwView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/searchPwView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디,이름, 생년월일로 pw 찾기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 생년월일로 id 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchPw.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid,mname,mbirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSearchPwService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSearchPwViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/searchPwResult.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminDeleteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminDeleteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminDogInsert.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogInsert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogInsertService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminDogListView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 관리자만 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogModifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogModifyContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminDogModifyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminPageDogListView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 강아지 목록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 고양이 목록 출력</t>
+  </si>
+  <si>
+    <t>adminPageCatListView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminCatListView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자, 등록한 관리자만 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDeleteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnum,pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminDogDeleteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고양이 분양글 수정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatInsertView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatBreedService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminCatInsert.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatInsert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatInsertService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatModifyView.do</t>
+  </si>
+  <si>
+    <t>cnum,pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatModifyContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminCatModifyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatDeleteView.do</t>
+  </si>
+  <si>
+    <t>CatDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminCatDeleteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax를 이용한 ID 중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypageView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/MyPage.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify,mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyAllView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MModifyAllViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/modifyAll.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MModifyAllService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify,oldmpw, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardWriteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard/FreeBoardWrite.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardWrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardListView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard/FreeBoardList.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardContentView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum, pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard/FreeBoardContent.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardModifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard/FreeBoardModify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 특정글삭제(하위글 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardDeleteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum,pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard/FreeBoardDeleteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum.pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoaordListView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardReplyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoardReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoardReplyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 특정글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글 댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 찜하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 찜하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogReplyInsert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogReplySerivice.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogContentView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteDogReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnum, Dog_ReplyDto,pageNum.replyPageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnum,rno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogReplyDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/DogDeleteReplyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogDeleteReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogReplyDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/DogContent.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catReplyInsert.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum,Cat_ReplyDto,pageNum,replyPageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatReplyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatContentView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/CatContent.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCatReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum.rno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatReplyDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet/CatDeleteReplyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatDeleteReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum,rno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatReplyDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 찜 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 찜 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 찜 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertCatZim.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum, mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertCatZimService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCatZim.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum,mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCatZimService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertZim.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnum,mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertZimService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteZim.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteZimService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 답글 작성,수정,삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 등록, 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 등록, 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 목록 출력(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 글목록 출력(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 분양글 댓글 출력(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분양글 댓글 출력(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewListView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/ReviewList.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 원글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 글 답변글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewWriteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/ReviewWrite.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewWrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewListVeiw.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 특정글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewContentView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnum, pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/ReviewContent.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 특정 글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 답변글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewReplyWriteView.do</t>
+  </si>
+  <si>
+    <t>ReviewReplyWriteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewReplyWrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnum, pageNum, reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum, FreeBoardDto, reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewReplyWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewModifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/ReviewModifyView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnum,pageNum, ReviewContent, ReviewDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시판 특정 글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDeleteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDeleteViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review/ReviewDeleteView.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnum,pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRow, endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnum, startRow, endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnum, startRow, endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum,startRow, endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면, 로그인, 회원가입,인기동물 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저, 머피의 법칙이란 하려는 일이 항상 원하지 않는 방향으로 진행되는 현상을 의미하는 용어이다, 샐리의 법칙은 머피의 법칙과 정반대 개념으로 우연히도 자신에게 유리한 일만 거듭해서 일어난다는 것이다. 하지만 많은 심리학자들은 자신의 인생태도와 신념에 따라 머피가 얼마든지 샐리로 바뀔수 있다고 한다. 즉, 머피와 샐리의 법칙보다 더 우선적인 것이 삶의 자세이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID중복체크, 비밀번호 형식,생년월일 확인후 회원가입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구경하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소통 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB에서 AID,APW 조회 후 일치시 로그인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 MID, MPW 조회후 일치시 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그아웃 (세션 만료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자에 한해 관리자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총관리자에 한해 관리자 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양글 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 관리자 아이디와 함께 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 관리자와 로그인한 관리자가 같을때 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 관리자와 로그인한 관리자가 같을때 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양글에 달린 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 입력한 개인정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기글 답변글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 회원 아이디와 함께 글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 회원 아이디와 로그인한 회원이 같을때 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 회원 아이디와 로그인한 회원이 같을때 삭제, 하위글까지 모두 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 확인가능(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기글의 답변글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글의 답변글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물의 분양글에 댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 분양글의 댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 분양글의 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭스 찜 추가, 찜 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,24 +1927,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5F4F7"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1F5E7"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1FFE1"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1140,56 +2148,255 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1200,7 +2407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,140 +2528,239 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,16 +2798,16 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFE1FFE1"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFF1F5E7"/>
-      <color rgb="FFE1FFE1"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFFDD"/>
       <color rgb="FFFFDDFF"/>
       <color rgb="FFE5F4F7"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1838,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W29" sqref="W28:W29"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.5" x14ac:dyDescent="0.45"/>
@@ -1856,41 +3162,41 @@
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -1935,32 +3241,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="36"/>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="19"/>
       <c r="E7" s="10">
         <v>27</v>
@@ -2060,8 +3366,8 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="55" t="s">
-        <v>30</v>
+      <c r="C11" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="35"/>
@@ -2081,7 +3387,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
@@ -2119,8 +3425,8 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="47" t="s">
-        <v>31</v>
+      <c r="C14" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="35"/>
@@ -2140,7 +3446,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
@@ -2178,7 +3484,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7"/>
@@ -2199,7 +3505,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="5"/>
@@ -2258,7 +3564,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="7"/>
@@ -2279,7 +3585,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2317,8 +3623,8 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="57" t="s">
-        <v>11</v>
+      <c r="C24" s="46" t="s">
+        <v>313</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
@@ -2338,7 +3644,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2376,8 +3682,8 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="57" t="s">
-        <v>109</v>
+      <c r="C27" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
@@ -2397,7 +3703,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2435,8 +3741,8 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="57" t="s">
-        <v>107</v>
+      <c r="C30" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
@@ -2456,7 +3762,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="57"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2494,8 +3800,8 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="57" t="s">
-        <v>108</v>
+      <c r="C33" s="46" t="s">
+        <v>315</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="3"/>
@@ -2515,7 +3821,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2553,8 +3859,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="57" t="s">
-        <v>110</v>
+      <c r="C36" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
@@ -2574,7 +3880,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="57"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2613,7 +3919,7 @@
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="10" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2633,8 +3939,8 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="58" t="s">
-        <v>111</v>
+      <c r="C40" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
@@ -2654,7 +3960,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="58"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2692,8 +3998,8 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="58" t="s">
-        <v>106</v>
+      <c r="C43" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="3"/>
@@ -2713,7 +4019,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2751,8 +4057,8 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="58" t="s">
-        <v>105</v>
+      <c r="C46" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="3"/>
@@ -2772,7 +4078,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="58"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2810,8 +4116,8 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="58" t="s">
-        <v>13</v>
+      <c r="C49" s="47" t="s">
+        <v>316</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="3"/>
@@ -2831,7 +4137,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="7"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2890,8 +4196,8 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="56" t="s">
-        <v>12</v>
+      <c r="C53" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="3"/>
@@ -2911,7 +4217,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="56"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2949,8 +4255,8 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="56" t="s">
-        <v>112</v>
+      <c r="C56" s="42" t="s">
+        <v>320</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="3"/>
@@ -2970,7 +4276,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="56"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3008,8 +4314,8 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="56" t="s">
-        <v>113</v>
+      <c r="C59" s="42" t="s">
+        <v>319</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="3"/>
@@ -3029,7 +4335,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="56"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="7"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3067,8 +4373,8 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="56" t="s">
-        <v>114</v>
+      <c r="C62" s="42" t="s">
+        <v>318</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="3"/>
@@ -3088,7 +4394,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="56"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="7"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3126,8 +4432,8 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="56" t="s">
-        <v>115</v>
+      <c r="C65" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="3"/>
@@ -3147,7 +4453,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="56"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="7"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3185,8 +4491,8 @@
     <row r="68" spans="1:17" ht="6.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="60" t="s">
-        <v>86</v>
+      <c r="C68" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="3"/>
@@ -3206,7 +4512,7 @@
     <row r="69" spans="1:17" ht="6.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="60"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="4"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3266,18 +4572,18 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="3"/>
       <c r="I72" s="35" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J72" s="35"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="M72" s="59"/>
+      <c r="L72" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M72" s="41"/>
       <c r="N72" s="39"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -3303,13 +4609,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3322,12 +4627,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,98 +4657,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="62"/>
+      <c r="B1" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="56"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="62"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="62"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="62"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +4768,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3472,94 +4778,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="34"/>
     </row>
@@ -3571,709 +4877,1959 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:I50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2" style="42" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="42" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="42"/>
+    <col min="1" max="1" width="1.33203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="59.75" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28" style="40" customWidth="1"/>
+    <col min="7" max="7" width="41.4140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="29.58203125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="E2" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="H2" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="41" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="86"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="86"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="86"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="86"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="86"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="86"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="86"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="86"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="86"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="86"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="86"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="86"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="77"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="77"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="77"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="77"/>
+      <c r="C22" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="77"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="77"/>
+      <c r="C24" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="77"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="77"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="77"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="77"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="77"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="77"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="77"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="77"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="77"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="77"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="41" t="s">
+      <c r="D36" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38" s="93"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39" s="93"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40" s="93"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41" s="93"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42" s="93"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="93"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="93"/>
+      <c r="C44" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="93"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B46" s="93"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B47" s="93"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B48" s="93"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="80"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="80"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="80"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="80"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="80"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80"/>
-      <c r="C16" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="80"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="80"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="44" t="s">
+      <c r="E48" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="93"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" s="94" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B50" s="93"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="80"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="44" t="s">
+      <c r="E50" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I50" s="94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B51" s="93"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="93"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="80"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67" t="s">
+      <c r="E52" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="80"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="80"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="80"/>
-      <c r="C23" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="81"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="81"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="81"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="81"/>
-      <c r="C31" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" s="81"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="81"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" s="81"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="81"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36" s="81"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37" s="81"/>
-      <c r="C37" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B38" s="81"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B39" s="81"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="81"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41" s="81"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="81"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B43" s="81"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B44" s="81"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B45" s="81"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B46" s="81"/>
-      <c r="C46" s="81" t="s">
+      <c r="F52" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" s="94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="93"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" s="94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="93"/>
+      <c r="C54" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B55" s="93"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" s="94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B56" s="93"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I56" s="94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B57" s="93"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="I57" s="94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B58" s="93"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="H58" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="I58" s="94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B59" s="93"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I59" s="94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B60" s="93"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="H60" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="I60" s="94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B61" s="93"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="I61" s="94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B62" s="93"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="I62" s="94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B63" s="93"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="I63" s="94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B64" s="93"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="G64" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="H64" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" s="94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B65" s="93"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="H65" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" s="94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B66" s="93"/>
+      <c r="C66" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="H66" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="I66" s="94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B67" s="93"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B68" s="93"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="H68" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="I68" s="94" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B69" s="93"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="I69" s="94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B70" s="93"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F70" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="I70" s="94" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B71" s="93"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="I71" s="94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B72" s="93"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H72" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="I72" s="94" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B73" s="93"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="H73" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I73" s="94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B74" s="93"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="F74" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H74" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="I74" s="94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="H75" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="I75" s="98" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E81" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="86" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B86" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B87" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="D87" s="117" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="117" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B88" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B90" s="57"/>
+      <c r="C90" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B93" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
+      <c r="E96" s="58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B97" s="57"/>
+      <c r="C97" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D97" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="E97" s="58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="E98" s="58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="E100" s="58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B101" s="57"/>
+      <c r="C101" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="D101" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="E101" s="58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="E102" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="G102" s="113"/>
+      <c r="H102" s="113"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="E103" s="58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B104" s="114"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104" s="115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B105" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B106" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="E106" s="117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B108" s="57"/>
+      <c r="C108" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="E108" s="58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="E109" s="58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E110" s="58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E111" s="58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B112" s="57"/>
+      <c r="C112" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="E112" s="58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B115" s="57"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B116" s="57"/>
+      <c r="C116" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E116" s="58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="E117" s="58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="E118" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E119" s="58" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+  <mergeCells count="74">
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="B93:B104"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="B106:B119"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B37:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B18:B35"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4293,66 +6849,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
